--- a/Test Results - Second EXFO Group/switch_test_combined_EO193700215.xlsx
+++ b/Test Results - Second EXFO Group/switch_test_combined_EO193700215.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35404357-0D7B-4041-BF95-259BB38C531D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286690CA-8B21-465C-B91E-99881E0F77C5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62520" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10056,8 +10056,8 @@
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1200150</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
